--- a/biology/Médecine/Hopital_Universitaire_de_Bruxelles/Hopital_Universitaire_de_Bruxelles.xlsx
+++ b/biology/Médecine/Hopital_Universitaire_de_Bruxelles/Hopital_Universitaire_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hopital Universitaire de Bruxelles, également connu comme HUB, ou en néerlandais Academisch Ziekenhuis van Brussel, est un regroupement hospitalier belge, issu de la fusion en 2021 de trois institutions hospitalières bruxelloise, les Cliniques universitaires de Bruxelles (Hôpital Erasme), l'Hôpital universitaire des enfants Reine Fabiola (HUDERF) et l'Institut Jules Bordet (IJB).
 Le siège social est établi au siège de l'ULB Avenue Franklin Roosevelt 50.
